--- a/CVX_Kenya/Labor_induced_by_roasting_add.xlsx
+++ b/CVX_Kenya/Labor_induced_by_roasting_add.xlsx
@@ -747,34 +747,34 @@
         <v>84</v>
       </c>
       <c r="E2">
-        <v>1390.65723116388</v>
+        <v>1390.492189285525</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.1800000286354247</v>
+        <v>0.1800000277979767</v>
       </c>
       <c r="H2">
-        <v>421.8335298789208</v>
+        <v>421.7718506478089</v>
       </c>
       <c r="I2">
-        <v>110.1009954765149</v>
+        <v>110.1009371332584</v>
       </c>
       <c r="J2">
-        <v>2004.296690126473</v>
+        <v>2004.295703725564</v>
       </c>
       <c r="K2">
-        <v>3312.693210989583</v>
+        <v>3312.671334687715</v>
       </c>
       <c r="L2">
-        <v>26.69075050847233</v>
+        <v>26.68909833253708</v>
       </c>
       <c r="M2">
-        <v>594.0194323953904</v>
+        <v>593.9699373454403</v>
       </c>
       <c r="N2">
-        <v>118561.8998505624</v>
+        <v>118561.616215425</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -824,34 +824,34 @@
         <v>85</v>
       </c>
       <c r="E3">
-        <v>1056.644643539232</v>
+        <v>1056.519241957292</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>5.050000803382749</v>
+        <v>5.05000077988768</v>
       </c>
       <c r="H3">
-        <v>2605.552629163511</v>
+        <v>2605.171653087867</v>
       </c>
       <c r="I3">
-        <v>83.87075831630355</v>
+        <v>83.87071387261909</v>
       </c>
       <c r="J3">
-        <v>855.3460365880981</v>
+        <v>855.3456952217936</v>
       </c>
       <c r="K3">
-        <v>18551.8238673196</v>
+        <v>18551.71900550669</v>
       </c>
       <c r="L3">
-        <v>20.33342621256838</v>
+        <v>20.3321675594084</v>
       </c>
       <c r="M3">
-        <v>11723.03352685569</v>
+        <v>11723.03313437773</v>
       </c>
       <c r="N3">
-        <v>74888.96007192199</v>
+        <v>74888.82679309309</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -901,34 +901,34 @@
         <v>86</v>
       </c>
       <c r="E4">
-        <v>5003.046142215198</v>
+        <v>5002.452385454508</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.980000314989672</v>
+        <v>1.980000305777744</v>
       </c>
       <c r="H4">
-        <v>43.99527692123117</v>
+        <v>43.98884406404735</v>
       </c>
       <c r="I4">
-        <v>398.0535989993571</v>
+        <v>398.0533880677964</v>
       </c>
       <c r="J4">
-        <v>9800.319165562829</v>
+        <v>9800.315254281786</v>
       </c>
       <c r="K4">
-        <v>5666.338883999547</v>
+        <v>5666.298015084029</v>
       </c>
       <c r="L4">
-        <v>96.5212024201732</v>
+        <v>96.51522769091898</v>
       </c>
       <c r="M4">
-        <v>2632.944720834637</v>
+        <v>2632.900460890328</v>
       </c>
       <c r="N4">
-        <v>93993.13057849099</v>
+        <v>93992.93858757762</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -987,16 +987,16 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>433.6290745113329</v>
+        <v>433.565670571131</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>611.429796787175</v>
+        <v>611.4265706764404</v>
       </c>
       <c r="K5">
-        <v>150.1107080959494</v>
+        <v>150.110667135502</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1005,7 +1005,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>24887.13194602431</v>
+        <v>24887.12349707579</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -1055,7 +1055,7 @@
         <v>85</v>
       </c>
       <c r="E6">
-        <v>21.6083363777328</v>
+        <v>21.60577192091052</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1067,22 +1067,22 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.720015551809505</v>
+        <v>1.720014640337496</v>
       </c>
       <c r="J6">
-        <v>41.11402088084264</v>
+        <v>41.11380394934076</v>
       </c>
       <c r="K6">
-        <v>1187.029670193551</v>
+        <v>1187.023633622337</v>
       </c>
       <c r="L6">
-        <v>0.4104729072945857</v>
+        <v>0.4104474987374419</v>
       </c>
       <c r="M6">
-        <v>10.44000015442552</v>
+        <v>10.4400001447209</v>
       </c>
       <c r="N6">
-        <v>30673.70602240384</v>
+        <v>30673.69324239864</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -1141,25 +1141,25 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>234.4076371725734</v>
+        <v>234.3733627922705</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>80.9477102678995</v>
+        <v>80.94729336916743</v>
       </c>
       <c r="K7">
-        <v>5417.91425389938</v>
+        <v>5416.6402303576</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>219.3602367390938</v>
+        <v>219.3602222754761</v>
       </c>
       <c r="N7">
-        <v>23472.38416566727</v>
+        <v>23472.35910745763</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -1209,34 +1209,34 @@
         <v>84</v>
       </c>
       <c r="E8">
-        <v>124.1101897931069</v>
+        <v>124.0954605137508</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>354.8400564499672</v>
+        <v>354.8400547990781</v>
       </c>
       <c r="H8">
-        <v>4317.049075024773</v>
+        <v>4316.417849081931</v>
       </c>
       <c r="I8">
-        <v>9.83008887801841</v>
+        <v>9.830083669033463</v>
       </c>
       <c r="J8">
-        <v>1459.335949543214</v>
+        <v>1459.334953059356</v>
       </c>
       <c r="K8">
-        <v>1044.650052695064</v>
+        <v>1044.645291016292</v>
       </c>
       <c r="L8">
-        <v>2.382745169173449</v>
+        <v>2.382597675597834</v>
       </c>
       <c r="M8">
-        <v>1106.355649134799</v>
+        <v>1106.260335498954</v>
       </c>
       <c r="N8">
-        <v>265645.8702680116</v>
+        <v>265645.7798100832</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -1286,34 +1286,34 @@
         <v>85</v>
       </c>
       <c r="E9">
-        <v>6.531588001057851</v>
+        <v>6.530812838402254</v>
       </c>
       <c r="F9">
-        <v>164.630034510847</v>
+        <v>164.6300326156801</v>
       </c>
       <c r="G9">
-        <v>7252.271153732398</v>
+        <v>7252.271119991293</v>
       </c>
       <c r="H9">
-        <v>1624.457953820056</v>
+        <v>1624.220430459611</v>
       </c>
       <c r="I9">
-        <v>0.5300047926000427</v>
+        <v>0.5300045117025033</v>
       </c>
       <c r="J9">
-        <v>27242.04850958172</v>
+        <v>27242.02985117086</v>
       </c>
       <c r="K9">
-        <v>23375.48385296174</v>
+        <v>23370.74182496464</v>
       </c>
       <c r="L9">
-        <v>0.1301499462153564</v>
+        <v>0.1301418898435791</v>
       </c>
       <c r="M9">
-        <v>16645.80521949238</v>
+        <v>16645.64246974096</v>
       </c>
       <c r="N9">
-        <v>204940.9840130587</v>
+        <v>204940.5434958624</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -1363,34 +1363,34 @@
         <v>86</v>
       </c>
       <c r="E10">
-        <v>711.802843293197</v>
+        <v>711.7183672083339</v>
       </c>
       <c r="F10">
-        <v>222.8000467048333</v>
+        <v>222.8000441400324</v>
       </c>
       <c r="G10">
-        <v>4521.860719363232</v>
+        <v>4521.860698325328</v>
       </c>
       <c r="H10">
-        <v>456.3683190066116</v>
+        <v>456.3015902024119</v>
       </c>
       <c r="I10">
-        <v>56.36050958135569</v>
+        <v>56.36047971564987</v>
       </c>
       <c r="J10">
-        <v>15871.07379793549</v>
+        <v>15871.06293647403</v>
       </c>
       <c r="K10">
-        <v>21380.26276276581</v>
+        <v>21373.98728795555</v>
       </c>
       <c r="L10">
-        <v>13.66574435261243</v>
+        <v>13.66489843357581</v>
       </c>
       <c r="M10">
-        <v>21819.83246138898</v>
+        <v>21819.24160271938</v>
       </c>
       <c r="N10">
-        <v>209466.53913243</v>
+        <v>209466.2853797968</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -1449,25 +1449,25 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>834.266702183328</v>
+        <v>834.1447182131403</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>492.3163868449585</v>
+        <v>492.3159834570478</v>
       </c>
       <c r="K11">
-        <v>1.320332587889298</v>
+        <v>1.320314685744765</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>122.7772537994632</v>
+        <v>122.7729114154254</v>
       </c>
       <c r="N11">
-        <v>36167.64173177484</v>
+        <v>36167.60965461649</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -1523,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>71.31001134440076</v>
+        <v>71.31001101263178</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1532,19 +1532,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>3130.000547319592</v>
+        <v>3129.999028411671</v>
       </c>
       <c r="K12">
-        <v>769.5887410700814</v>
+        <v>769.4541326241587</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1711.597157920542</v>
+        <v>1711.56637356233</v>
       </c>
       <c r="N12">
-        <v>32490.46154021526</v>
+        <v>32490.38546651936</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -1600,7 +1600,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>15.03000239105796</v>
+        <v>15.03000232113106</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1609,19 +1609,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>1691.431628765803</v>
+        <v>1691.430363934709</v>
       </c>
       <c r="K13">
-        <v>274.0687389311094</v>
+        <v>274.0681348770062</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1512.747514235178</v>
+        <v>1512.609824959126</v>
       </c>
       <c r="N13">
-        <v>21472.33699627334</v>
+        <v>21472.30426699104</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -1680,25 +1680,25 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>634.8548524843172</v>
+        <v>634.7620259155517</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.9300101925501532</v>
+        <v>0.930009555443053</v>
       </c>
       <c r="K14">
-        <v>2.930219385389595</v>
+        <v>2.930206070505267</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>20.39423916247572</v>
+        <v>20.39420665939522</v>
       </c>
       <c r="N14">
-        <v>25386.53277203642</v>
+        <v>25386.52374856511</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1754,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>139.020022116093</v>
+        <v>139.020021469304</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1763,19 +1763,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>15237.0531079905</v>
+        <v>15237.04172430784</v>
       </c>
       <c r="K15">
-        <v>1447.438053029658</v>
+        <v>1447.431822657201</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>6609.424358226784</v>
+        <v>6609.408744322558</v>
       </c>
       <c r="N15">
-        <v>23972.70160516305</v>
+        <v>23972.62527229953</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1825,34 +1825,34 @@
         <v>86</v>
       </c>
       <c r="E16">
-        <v>4.868637681770116</v>
+        <v>4.868059876477753</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.4600000731794188</v>
+        <v>0.4600000710392739</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.3800034356285429</v>
+        <v>0.3800032342753094</v>
       </c>
       <c r="J16">
-        <v>4935.478588400814</v>
+        <v>4935.474937512222</v>
       </c>
       <c r="K16">
-        <v>2467.120266805081</v>
+        <v>2467.10715633693</v>
       </c>
       <c r="L16">
-        <v>0.09010380891832369</v>
+        <v>0.09009823143017018</v>
       </c>
       <c r="M16">
-        <v>3305.589668128438</v>
+        <v>3305.571523317644</v>
       </c>
       <c r="N16">
-        <v>19419.8764316112</v>
+        <v>19419.84714174342</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1908,28 +1908,28 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>32.59000518460273</v>
+        <v>32.59000503297812</v>
       </c>
       <c r="H17">
-        <v>295.4999397037409</v>
+        <v>295.4567325905468</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>8.86004441589963</v>
+        <v>8.860044062947718</v>
       </c>
       <c r="K17">
-        <v>404.9030087739076</v>
+        <v>404.8993246290045</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>6.111703188313959</v>
+        <v>6.111696171361891</v>
       </c>
       <c r="N17">
-        <v>17584.50467229792</v>
+        <v>17584.49978206282</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1979,34 +1979,34 @@
         <v>85</v>
       </c>
       <c r="E18">
-        <v>46.93326654134359</v>
+        <v>46.92769654588122</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.330000370669664</v>
+        <v>2.330000359829365</v>
       </c>
       <c r="H18">
-        <v>44.96738212883013</v>
+        <v>44.96080713334408</v>
       </c>
       <c r="I18">
-        <v>3.720033634599885</v>
+        <v>3.720031663332172</v>
       </c>
       <c r="J18">
-        <v>997.7396382856813</v>
+        <v>997.7377365966864</v>
       </c>
       <c r="K18">
-        <v>1077.304675295051</v>
+        <v>1076.424347727051</v>
       </c>
       <c r="L18">
-        <v>0.9010380891832369</v>
+        <v>0.9009823143017018</v>
       </c>
       <c r="M18">
-        <v>1780.290395608032</v>
+        <v>1780.254692171733</v>
       </c>
       <c r="N18">
-        <v>11306.86049512293</v>
+        <v>11306.84522412378</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -2062,28 +2062,28 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>19.18000305126359</v>
+        <v>19.18000296202885</v>
       </c>
       <c r="H19">
-        <v>110.890145588479</v>
+        <v>110.8739315646205</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>789.6133393688903</v>
+        <v>789.6118431698388</v>
       </c>
       <c r="K19">
-        <v>2825.261148789012</v>
+        <v>2825.244407828262</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>2410.931671818807</v>
+        <v>2410.61247827779</v>
       </c>
       <c r="N19">
-        <v>15283.32697601615</v>
+        <v>15283.30819411366</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -2139,16 +2139,16 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.2600000413622802</v>
+        <v>0.2600000401526331</v>
       </c>
       <c r="H20">
-        <v>263.3703593371197</v>
+        <v>263.3318501146161</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>26.64077603583477</v>
+        <v>26.64072656056792</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2157,10 +2157,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>7.310012148750111</v>
+        <v>7.310011496730862</v>
       </c>
       <c r="N20">
-        <v>17386.33356614578</v>
+        <v>17386.33125868849</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -2216,7 +2216,7 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>52.14000829472802</v>
+        <v>52.14000805214725</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2225,19 +2225,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>2472.551546068468</v>
+        <v>2472.546985921488</v>
       </c>
       <c r="K21">
-        <v>867.2445486262812</v>
+        <v>867.2437215109438</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>3456.544106793976</v>
+        <v>3456.339815282704</v>
       </c>
       <c r="N21">
-        <v>10287.1467249244</v>
+        <v>10287.12567455679</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -2293,28 +2293,28 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>8.6600013776821</v>
+        <v>8.660001337391547</v>
       </c>
       <c r="H22">
-        <v>39.11470747689414</v>
+        <v>39.10898824190816</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>1605.596726132687</v>
+        <v>1605.593747048666</v>
       </c>
       <c r="K22">
-        <v>32.30030620083265</v>
+        <v>32.30028757585207</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1684.448178555254</v>
+        <v>1684.42420866992</v>
       </c>
       <c r="N22">
-        <v>7635.870114705171</v>
+        <v>7635.861902728151</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -2391,7 +2391,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>6873.864354514218</v>
+        <v>6873.863522597238</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>7.630001213823836</v>
+        <v>7.630001178325346</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -2456,7 +2456,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>795.2768670774662</v>
+        <v>795.2732113145069</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2465,10 +2465,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>218.8903631187063</v>
+        <v>218.8903436073975</v>
       </c>
       <c r="N24">
-        <v>2408.114943024309</v>
+        <v>2408.110671754002</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.280000521801072</v>
+        <v>3.280000506540909</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -2533,7 +2533,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>424.5303712045023</v>
+        <v>424.5284186982245</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2542,10 +2542,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>146.0054473153073</v>
+        <v>146.0046340493145</v>
       </c>
       <c r="N25">
-        <v>4408.566222674612</v>
+        <v>4408.56001828905</v>
       </c>
       <c r="O25">
         <v>0</v>
@@ -2595,34 +2595,34 @@
         <v>84</v>
       </c>
       <c r="E26">
-        <v>84.67021746156588</v>
+        <v>84.66016888063781</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
-        <v>17.01000270604764</v>
+        <v>17.01000262690881</v>
       </c>
       <c r="H26">
-        <v>408.8153374596316</v>
+        <v>408.7555617094951</v>
       </c>
       <c r="I26">
-        <v>6.71006066930446</v>
+        <v>6.710057113567826</v>
       </c>
       <c r="J26">
-        <v>262.1738176268466</v>
+        <v>262.1735823707799</v>
       </c>
       <c r="K26">
-        <v>275.560180360782</v>
+        <v>275.558477139877</v>
       </c>
       <c r="L26">
-        <v>1.621868560529826</v>
+        <v>1.621768165743063</v>
       </c>
       <c r="M26">
-        <v>104.6671680492934</v>
+        <v>104.6588056514213</v>
       </c>
       <c r="N26">
-        <v>28932.05463753389</v>
+        <v>28932.03027898912</v>
       </c>
       <c r="O26">
         <v>0</v>
@@ -2672,34 +2672,34 @@
         <v>85</v>
       </c>
       <c r="E27">
-        <v>32.12699803587811</v>
+        <v>32.12318523428839</v>
       </c>
       <c r="F27">
-        <v>5.750001205353643</v>
+        <v>5.750001139161517</v>
       </c>
       <c r="G27">
-        <v>239.81003815034</v>
+        <v>239.8100370346266</v>
       </c>
       <c r="H27">
-        <v>133.3487823949663</v>
+        <v>133.329284536723</v>
       </c>
       <c r="I27">
-        <v>2.550023055631585</v>
+        <v>2.550021704385832</v>
       </c>
       <c r="J27">
-        <v>2714.849481301386</v>
+        <v>2714.847062631645</v>
       </c>
       <c r="K27">
-        <v>1545.458703264211</v>
+        <v>1545.254428660561</v>
       </c>
       <c r="L27">
-        <v>0.6207151281040076</v>
+        <v>0.620676705407839</v>
       </c>
       <c r="M27">
-        <v>1472.287611819062</v>
+        <v>1472.262151824574</v>
       </c>
       <c r="N27">
-        <v>13260.59841035167</v>
+        <v>13260.57202646457</v>
       </c>
       <c r="O27">
         <v>0</v>
@@ -2749,34 +2749,34 @@
         <v>86</v>
       </c>
       <c r="E28">
-        <v>145.1875842014286</v>
+        <v>145.1703534769385</v>
       </c>
       <c r="F28">
-        <v>5.620001178102168</v>
+        <v>5.620001113406561</v>
       </c>
       <c r="G28">
-        <v>92.63001473610773</v>
+        <v>92.63001430514768</v>
       </c>
       <c r="H28">
-        <v>22.71920108893647</v>
+        <v>22.71587915562537</v>
       </c>
       <c r="I28">
-        <v>11.50010397750408</v>
+        <v>11.50009788356189</v>
       </c>
       <c r="J28">
-        <v>913.653281163692</v>
+        <v>913.6524702297111</v>
       </c>
       <c r="K28">
-        <v>959.6252972429919</v>
+        <v>959.4332093238619</v>
       </c>
       <c r="L28">
-        <v>2.793218076468035</v>
+        <v>2.793045174335275</v>
       </c>
       <c r="M28">
-        <v>848.3259928789486</v>
+        <v>848.2975331119214</v>
       </c>
       <c r="N28">
-        <v>9917.315615910044</v>
+        <v>9917.301365436189</v>
       </c>
       <c r="O28">
         <v>0</v>
@@ -2829,10 +2829,10 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>79.75001671773096</v>
+        <v>79.75001579967496</v>
       </c>
       <c r="G29">
-        <v>1943.590309197362</v>
+        <v>1943.590300154831</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -2841,7 +2841,7 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>29448.07388698448</v>
+        <v>29448.04790497958</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -2850,7 +2850,7 @@
         <v>0</v>
       </c>
       <c r="M29">
-        <v>10307.91481533827</v>
+        <v>10307.91415369729</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -2906,10 +2906,10 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>3524.380738804221</v>
+        <v>3524.380698232708</v>
       </c>
       <c r="G30">
-        <v>81534.26297093264</v>
+        <v>81534.26259159546</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>536985.955083644</v>
+        <v>536985.5044384677</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -2927,7 +2927,7 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>192893.0813586837</v>
+        <v>192893.0696474909</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>141176.6395746932</v>
+        <v>141176.5147667798</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -3004,7 +3004,7 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>33550.94924943469</v>
+        <v>33550.94803839108</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -3060,10 +3060,10 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>534.1301119679202</v>
+        <v>534.1301058191898</v>
       </c>
       <c r="G32">
-        <v>14172.42225462925</v>
+        <v>14172.42218869223</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -3072,7 +3072,7 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>103852.607838039</v>
+        <v>103852.520288595</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -3081,7 +3081,7 @@
         <v>0</v>
       </c>
       <c r="M32">
-        <v>80124.24476848311</v>
+        <v>80124.17480795148</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -3134,7 +3134,7 @@
         <v>90</v>
       </c>
       <c r="E33">
-        <v>15643.28349358265</v>
+        <v>15641.4269635668</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -3143,25 +3143,25 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>33127.63176373021</v>
+        <v>33122.78794096361</v>
       </c>
       <c r="I33">
-        <v>2987.227153464111</v>
+        <v>2987.225559012128</v>
       </c>
       <c r="J33">
-        <v>45096.14383890847</v>
+        <v>45096.10407377469</v>
       </c>
       <c r="K33">
-        <v>232634.9561189728</v>
+        <v>232437.4289253007</v>
       </c>
       <c r="L33">
-        <v>20890.24772861497</v>
+        <v>20888.95460781765</v>
       </c>
       <c r="M33">
-        <v>72345.98029378688</v>
+        <v>72343.0620071306</v>
       </c>
       <c r="N33">
-        <v>1537813.74913815</v>
+        <v>1537811.545278365</v>
       </c>
       <c r="O33">
         <v>0</v>
@@ -3365,16 +3365,16 @@
         <v>91</v>
       </c>
       <c r="E36">
-        <v>1469.747549060125</v>
+        <v>1469.573120818019</v>
       </c>
       <c r="F36">
-        <v>381.0400798761656</v>
+        <v>381.0400754897573</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>2677.1877634307</v>
+        <v>2676.79631308099</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -3383,16 +3383,16 @@
         <v>0</v>
       </c>
       <c r="K36">
-        <v>16325.34443999613</v>
+        <v>16320.0764298396</v>
       </c>
       <c r="L36">
-        <v>2205.040434917866</v>
+        <v>2204.903941388331</v>
       </c>
       <c r="M36">
-        <v>38077.58355927897</v>
+        <v>38077.34461573359</v>
       </c>
       <c r="N36">
-        <v>91715.50982040347</v>
+        <v>91715.37196778847</v>
       </c>
       <c r="O36">
         <v>0</v>
@@ -3472,10 +3472,10 @@
         <v>0</v>
       </c>
       <c r="O37">
-        <v>937.6034468880499</v>
+        <v>937.4921730021787</v>
       </c>
       <c r="P37">
-        <v>14.3300030039509</v>
+        <v>14.33000283898862</v>
       </c>
       <c r="Q37">
         <v>0</v>
@@ -3484,25 +3484,25 @@
         <v>0</v>
       </c>
       <c r="S37">
-        <v>4820.589273700395</v>
+        <v>4820.579045932861</v>
       </c>
       <c r="T37">
         <v>0</v>
       </c>
       <c r="U37">
-        <v>3059.856191143775</v>
+        <v>3059.354520753972</v>
       </c>
       <c r="V37">
-        <v>2047.040287081059</v>
+        <v>2047.034843747646</v>
       </c>
       <c r="W37">
-        <v>11004.92881758271</v>
+        <v>11004.24760486987</v>
       </c>
       <c r="X37">
-        <v>17.88800621986971</v>
+        <v>17.88543353180428</v>
       </c>
       <c r="Y37">
-        <v>1092.269121937338</v>
+        <v>1092.267978625161</v>
       </c>
     </row>
     <row r="38" spans="1:25">
@@ -3549,10 +3549,10 @@
         <v>0</v>
       </c>
       <c r="O38">
-        <v>10893.03585321821</v>
+        <v>10891.74307807714</v>
       </c>
       <c r="P38">
-        <v>32.19000674788413</v>
+        <v>32.19000637732334</v>
       </c>
       <c r="Q38">
         <v>0</v>
@@ -3561,25 +3561,25 @@
         <v>0</v>
       </c>
       <c r="S38">
-        <v>13414.5270365355</v>
+        <v>13414.50395151657</v>
       </c>
       <c r="T38">
         <v>0</v>
       </c>
       <c r="U38">
-        <v>39209.77496207057</v>
+        <v>39206.63642270198</v>
       </c>
       <c r="V38">
-        <v>22154.93455704522</v>
+        <v>22154.88197313521</v>
       </c>
       <c r="W38">
-        <v>39803.38762427247</v>
+        <v>39800.92376702149</v>
       </c>
       <c r="X38">
-        <v>235.1195529022874</v>
+        <v>235.0857375480067</v>
       </c>
       <c r="Y38">
-        <v>12070.52130692576</v>
+        <v>12070.50867274271</v>
       </c>
     </row>
     <row r="39" spans="1:25">
@@ -3626,10 +3626,10 @@
         <v>0</v>
       </c>
       <c r="O39">
-        <v>9849.394279043052</v>
+        <v>9848.225362292005</v>
       </c>
       <c r="P39">
-        <v>56.85001191727905</v>
+        <v>56.85001126284039</v>
       </c>
       <c r="Q39">
         <v>0</v>
@@ -3638,25 +3638,25 @@
         <v>0</v>
       </c>
       <c r="S39">
-        <v>54231.91540757971</v>
+        <v>54231.86883839853</v>
       </c>
       <c r="T39">
         <v>0</v>
       </c>
       <c r="U39">
-        <v>19451.30035926645</v>
+        <v>19449.88491412727</v>
       </c>
       <c r="V39">
-        <v>26087.4155835178</v>
+        <v>26087.32554071656</v>
       </c>
       <c r="W39">
-        <v>79607.35591753575</v>
+        <v>79602.42816708998</v>
       </c>
       <c r="X39">
-        <v>367.0197982053267</v>
+        <v>366.9670126996078</v>
       </c>
       <c r="Y39">
-        <v>17485.03134017628</v>
+        <v>17485.01157439674</v>
       </c>
     </row>
     <row r="40" spans="1:25">
@@ -3780,37 +3780,37 @@
         <v>0</v>
       </c>
       <c r="O41">
-        <v>300378.6660840785</v>
+        <v>300343.0174295019</v>
       </c>
       <c r="P41">
-        <v>1698.120355971326</v>
+        <v>1698.120336423123</v>
       </c>
       <c r="Q41">
         <v>0</v>
       </c>
       <c r="R41">
-        <v>17053.55483876921</v>
+        <v>17053.5457505536</v>
       </c>
       <c r="S41">
-        <v>156276.1778643805</v>
+        <v>156275.9667684564</v>
       </c>
       <c r="T41">
-        <v>1789.540130859157</v>
+        <v>1789.53727880047</v>
       </c>
       <c r="U41">
-        <v>473197.4717310579</v>
+        <v>473159.7721440481</v>
       </c>
       <c r="V41">
-        <v>163512.4838400379</v>
+        <v>163512.0306032654</v>
       </c>
       <c r="W41">
-        <v>321629.9409975248</v>
+        <v>321610.0318815034</v>
       </c>
       <c r="X41">
-        <v>37500.50643096286</v>
+        <v>37495.11303473096</v>
       </c>
       <c r="Y41">
-        <v>50722.20703005484</v>
+        <v>50722.05744086751</v>
       </c>
     </row>
     <row r="42" spans="1:25">
@@ -3857,37 +3857,37 @@
         <v>0</v>
       </c>
       <c r="O42">
-        <v>33029.01835304261</v>
+        <v>33025.09850053902</v>
       </c>
       <c r="P42">
-        <v>1063.470222931728</v>
+        <v>1063.470210689409</v>
       </c>
       <c r="Q42">
         <v>0</v>
       </c>
       <c r="R42">
-        <v>1845.066752379776</v>
+        <v>1845.065769104012</v>
       </c>
       <c r="S42">
-        <v>54881.0320783465</v>
+        <v>54880.90070515035</v>
       </c>
       <c r="T42">
-        <v>342.3536139150775</v>
+        <v>342.3530682930031</v>
       </c>
       <c r="U42">
-        <v>49477.06096036862</v>
+        <v>49469.17002502827</v>
       </c>
       <c r="V42">
-        <v>25742.39903460722</v>
+        <v>25742.33162096314</v>
       </c>
       <c r="W42">
-        <v>119409.8625267877</v>
+        <v>119402.4709736263</v>
       </c>
       <c r="X42">
-        <v>3635.293822017522</v>
+        <v>3634.770986944945</v>
       </c>
       <c r="Y42">
-        <v>4232.722536148876</v>
+        <v>4232.707312771098</v>
       </c>
     </row>
     <row r="43" spans="1:25">
@@ -3934,34 +3934,34 @@
         <v>0</v>
       </c>
       <c r="O43">
-        <v>10530.00177719009</v>
+        <v>10528.75208658809</v>
       </c>
       <c r="P43">
-        <v>1733.620363413075</v>
+        <v>1733.620343456207</v>
       </c>
       <c r="Q43">
         <v>0</v>
       </c>
       <c r="R43">
-        <v>924.1783898630906</v>
+        <v>924.1778974537951</v>
       </c>
       <c r="S43">
-        <v>167379.2601911564</v>
+        <v>167378.6300239032</v>
       </c>
       <c r="T43">
-        <v>11176.40180831407</v>
+        <v>11176.3839960542</v>
       </c>
       <c r="U43">
-        <v>26188.95350535211</v>
+        <v>26166.4737537503</v>
       </c>
       <c r="V43">
-        <v>43787.29567223857</v>
+        <v>43787.17948422571</v>
       </c>
       <c r="W43">
-        <v>23726.69561029516</v>
+        <v>23725.2269114102</v>
       </c>
       <c r="X43">
-        <v>8332.24331850731</v>
+        <v>8331.044958965153</v>
       </c>
       <c r="Y43">
         <v>0</v>
